--- a/app_ia2/GameData.xlsx
+++ b/app_ia2/GameData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stpauls4-my.sharepoint.com/personal/24894_stpauls_qld_edu_au/Documents/2024/Digital Solutions/IA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asgibsonpc2022/PycharmProjects/FinalNorthsideDJ/app_ia2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{94CE5F5E-2898-4CB8-8647-71918C06609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E68F65-49D3-8D4F-8584-EEC01062D91E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D1378-99A9-934B-A1B3-3FF93CB689F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,10 +2579,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2875,10 +2871,10 @@
   <dimension ref="A1:AC108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2974,7 +2970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
